--- a/medicine/Mort/Mort_d'Alan_Kurdi/Mort_d'Alan_Kurdi.xlsx
+++ b/medicine/Mort/Mort_d'Alan_Kurdi/Mort_d'Alan_Kurdi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mort_d%27Alan_Kurdi</t>
+          <t>Mort_d'Alan_Kurdi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mort d’Alan Kurdi (kurde : Alan Kurdî, initialement orthographié par la presse Aylan Kurdi), un garçon syrien d'origine kurde, réfugié de la guerre civile syrienne, noyé le 2 septembre 2015 à l'âge de trois ans, entraîne une onde de choc mondiale et relance la question de l'accueil des migrants syriens lorsque plusieurs photographies de sa dépouille gisant sur une plage de Turquie sont relayées dans la presse internationale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mort_d%27Alan_Kurdi</t>
+          <t>Mort_d'Alan_Kurdi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie d'Alan Kurdi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille, originaire de Kobané, est établie à Damas lorsque débute la guerre civile syrienne. Elle se réfugie un temps à Alep, puis se réinstalle à Kobané. Alan Kurdi y naît le 4 mai 2012.
-En septembre 2014, la ville est attaquée par l'État islamique et les Kurdi font partie des milliers de civils qui traversent la frontière pour trouver refuge en Turquie. Une fois la bataille de Kobané achevée, ils regagnent la ville, totalement dévastée par les combats. Mais en juin, les djihadistes font une nouvelle incursion et massacrent 250 civils. La famille Kurdi échappe à la tuerie mais décide de quitter définitivement la Syrie[1].
-Faute de visa pour le Canada, elle veut passer par l'Europe parce que le père veut y refaire sa vie[2],[3],[4]. Alors qu'il tente avec sa famille de traverser la Méditerranée et de gagner la Grèce depuis la Turquie, en passant notamment par l'île de Kos, le bateau pneumatique qu'il utilise chavire la nuit du 2 septembre 2015. Lui, sa mère et son frère Galip âgé de cinq ans trouvent la mort dans ce naufrage ; seul son père parvient à rejoindre le rivage turc. Au total, 12 réfugiés syriens, dont cinq enfants, sont morts dans cette tentative de traversée, 15 ont pu être secourus[5]. 
-Alan Kurdi est inhumé le 4 septembre à Kobané, en même temps que son frère et sa mère[6].
-Sa famille obtient l'asile au Canada à la fin de l'année 2015[7].
+En septembre 2014, la ville est attaquée par l'État islamique et les Kurdi font partie des milliers de civils qui traversent la frontière pour trouver refuge en Turquie. Une fois la bataille de Kobané achevée, ils regagnent la ville, totalement dévastée par les combats. Mais en juin, les djihadistes font une nouvelle incursion et massacrent 250 civils. La famille Kurdi échappe à la tuerie mais décide de quitter définitivement la Syrie.
+Faute de visa pour le Canada, elle veut passer par l'Europe parce que le père veut y refaire sa vie. Alors qu'il tente avec sa famille de traverser la Méditerranée et de gagner la Grèce depuis la Turquie, en passant notamment par l'île de Kos, le bateau pneumatique qu'il utilise chavire la nuit du 2 septembre 2015. Lui, sa mère et son frère Galip âgé de cinq ans trouvent la mort dans ce naufrage ; seul son père parvient à rejoindre le rivage turc. Au total, 12 réfugiés syriens, dont cinq enfants, sont morts dans cette tentative de traversée, 15 ont pu être secourus. 
+Alan Kurdi est inhumé le 4 septembre à Kobané, en même temps que son frère et sa mère.
+Sa famille obtient l'asile au Canada à la fin de l'année 2015.
 </t>
         </is>
       </c>
